--- a/data/spring-cloud-shop/shop-common_structure.xlsx
+++ b/data/spring-cloud-shop/shop-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8375" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8333" uniqueCount="671">
   <si>
     <t>Class Name</t>
   </si>
@@ -1335,97 +1335,100 @@
     <t>applicationContext</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>authorities</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>exchange</t>
   </si>
   <si>
+    <t>routingKey</t>
+  </si>
+  <si>
+    <t>queueName</t>
+  </si>
+  <si>
     <t>payLoad</t>
   </si>
   <si>
-    <t>queueName</t>
-  </si>
-  <si>
-    <t>routingKey</t>
-  </si>
-  <si>
     <t>CACHE</t>
   </si>
   <si>
     <t>serialVersionUID</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>master</t>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>accountNonLocked</t>
+  </si>
+  <si>
+    <t>java.util.Set</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>accountNonExpired</t>
+  </si>
+  <si>
+    <t>nickName</t>
   </si>
   <si>
     <t>credentialsNonExpired</t>
   </si>
   <si>
-    <t>accountNonExpired</t>
-  </si>
-  <si>
-    <t>java.util.Set</t>
-  </si>
-  <si>
-    <t>nickName</t>
-  </si>
-  <si>
-    <t>accountNonLocked</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>enabled</t>
+    <t>BANNER_TYPE</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE</t>
+  </si>
+  <si>
+    <t>OFFER_TYPE</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>SHARE_CHANNEL</t>
+  </si>
+  <si>
+    <t>GOODS_TYPE</t>
   </si>
   <si>
     <t>MODULE_TYPE</t>
   </si>
   <si>
-    <t>BANNER_TYPE</t>
-  </si>
-  <si>
-    <t>SHARE_CHANNEL</t>
-  </si>
-  <si>
-    <t>GOODS_TYPE</t>
-  </si>
-  <si>
-    <t>OFFER_TYPE</t>
-  </si>
-  <si>
-    <t>ORDER_STATUS</t>
-  </si>
-  <si>
-    <t>ORDER_TYPE</t>
+    <t>source</t>
   </si>
   <si>
     <t>content</t>
@@ -1434,87 +1437,84 @@
     <t>graphicCode</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>DELETE_ALL</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
     <t>LIST</t>
   </si>
   <si>
     <t>INFO</t>
   </si>
   <si>
-    <t>MODIFY</t>
-  </si>
-  <si>
-    <t>DELETE_ALL</t>
-  </si>
-  <si>
-    <t>ADD</t>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>deleteStatus</t>
   </si>
   <si>
     <t>createUser</t>
   </si>
   <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>deleteStatus</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>updateUser</t>
+    <t>THREE</t>
+  </si>
+  <si>
+    <t>ZERO</t>
   </si>
   <si>
     <t>EIGHT</t>
   </si>
   <si>
-    <t>ZERO</t>
-  </si>
-  <si>
-    <t>THREE</t>
+    <t>FOUR</t>
   </si>
   <si>
     <t>NINE</t>
   </si>
   <si>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>SEVEN</t>
+  </si>
+  <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>SIX</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
     <t>TEN</t>
   </si>
   <si>
-    <t>FOUR</t>
-  </si>
-  <si>
-    <t>SIX</t>
-  </si>
-  <si>
-    <t>SEVEN</t>
-  </si>
-  <si>
-    <t>TWO</t>
-  </si>
-  <si>
-    <t>FIVE</t>
-  </si>
-  <si>
-    <t>ONE</t>
-  </si>
-  <si>
     <t>serverStatus</t>
   </si>
   <si>
+    <t>SLASH</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
     <t>EN_COMMA</t>
   </si>
   <si>
-    <t>POINT</t>
-  </si>
-  <si>
-    <t>SLASH</t>
-  </si>
-  <si>
     <t>SHOULDER</t>
   </si>
   <si>
@@ -1530,303 +1530,303 @@
     <t>dest</t>
   </si>
   <si>
+    <t>PUBLISH_COUPON_PHONE_IS_BLANK</t>
+  </si>
+  <si>
+    <t>USER_GRAPHIC_CODE_EMPTY</t>
+  </si>
+  <si>
+    <t>USER_GRAPHIC_CODE_ERROR</t>
+  </si>
+  <si>
+    <t>SMS_CODE_EXPIRE</t>
+  </si>
+  <si>
+    <t>TELNET_EXCEPTION</t>
+  </si>
+  <si>
+    <t>NO_PERMISSION</t>
+  </si>
+  <si>
+    <t>GOODS_EXPIRE</t>
+  </si>
+  <si>
+    <t>USER_GRAPHIC_CODE_EXPIRE</t>
+  </si>
+  <si>
+    <t>SMS_CODE_NOT_EMPTY</t>
+  </si>
+  <si>
+    <t>USER_PHONE_NOT_EXISTS</t>
+  </si>
+  <si>
+    <t>USER_PHONE_REGISTERED</t>
+  </si>
+  <si>
+    <t>SMS_CODE_ERROR</t>
+  </si>
+  <si>
+    <t>PARAMS_EXCEPTION</t>
+  </si>
+  <si>
+    <t>USER_ACCOUNT_PASSWORD_NOT_CORRECT</t>
+  </si>
+  <si>
+    <t>LOGIN_EXPIRE</t>
+  </si>
+  <si>
+    <t>SERVICE_NOT_FOUND</t>
+  </si>
+  <si>
+    <t>SUCCESS_MSG</t>
+  </si>
+  <si>
+    <t>USER_PHONE_EXCEPTION</t>
+  </si>
+  <si>
     <t>REPEAT_SUBMIT</t>
   </si>
   <si>
-    <t>USER_ACCOUNT_PASSWORD_NOT_CORRECT</t>
-  </si>
-  <si>
-    <t>PARAMS_EXCEPTION</t>
-  </si>
-  <si>
-    <t>PUBLISH_COUPON_PHONE_IS_BLANK</t>
-  </si>
-  <si>
-    <t>SUCCESS_MSG</t>
-  </si>
-  <si>
-    <t>USER_PHONE_NOT_EXISTS</t>
-  </si>
-  <si>
-    <t>SMS_CODE_NOT_EMPTY</t>
-  </si>
-  <si>
-    <t>TELNET_EXCEPTION</t>
-  </si>
-  <si>
-    <t>USER_GRAPHIC_CODE_EXPIRE</t>
-  </si>
-  <si>
-    <t>SERVICE_NOT_FOUND</t>
-  </si>
-  <si>
-    <t>USER_GRAPHIC_CODE_ERROR</t>
-  </si>
-  <si>
-    <t>SMS_CODE_EXPIRE</t>
-  </si>
-  <si>
-    <t>USER_GRAPHIC_CODE_EMPTY</t>
-  </si>
-  <si>
-    <t>LOGIN_EXPIRE</t>
-  </si>
-  <si>
-    <t>GOODS_EXPIRE</t>
-  </si>
-  <si>
-    <t>USER_PHONE_EXCEPTION</t>
-  </si>
-  <si>
-    <t>NO_PERMISSION</t>
-  </si>
-  <si>
-    <t>USER_PHONE_REGISTERED</t>
-  </si>
-  <si>
-    <t>SMS_CODE_ERROR</t>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>ERROR_CODE</t>
   </si>
   <si>
     <t>FAIL_CODE</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
     <t>EXCEPTION_CODE</t>
   </si>
   <si>
-    <t>ERROR_CODE</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>SELLER</t>
+  </si>
+  <si>
     <t>USER</t>
   </si>
   <si>
-    <t>SELLER</t>
+    <t>JOB_CLIENT</t>
+  </si>
+  <si>
+    <t>CART_CLIENT</t>
+  </si>
+  <si>
+    <t>GOODS_CLIENT</t>
   </si>
   <si>
     <t>RISK_CLIENT</t>
   </si>
   <si>
-    <t>CART_CLIENT</t>
+    <t>USER_CLIENT</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>SETTLEMENT</t>
+  </si>
+  <si>
+    <t>ELASTICSEARCH</t>
+  </si>
+  <si>
+    <t>PLATFORM_CLIENT</t>
   </si>
   <si>
     <t>ORDER_CLIENT</t>
   </si>
   <si>
+    <t>SELLER_CLIENT</t>
+  </si>
+  <si>
     <t>ELASTICSEARCH_CLIENT</t>
   </si>
   <si>
-    <t>SELLER_CLIENT</t>
-  </si>
-  <si>
-    <t>GOODS_CLIENT</t>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>MANAGE</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>SETTLEMENT_CLIENT</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CLIENT</t>
+  </si>
+  <si>
+    <t>PLATFORM</t>
   </si>
   <si>
     <t>GOODS</t>
   </si>
   <si>
-    <t>PLATFORM_CLIENT</t>
-  </si>
-  <si>
-    <t>JOB_CLIENT</t>
-  </si>
-  <si>
-    <t>SETTLEMENT_CLIENT</t>
-  </si>
-  <si>
-    <t>PLATFORM</t>
-  </si>
-  <si>
-    <t>CART</t>
-  </si>
-  <si>
-    <t>MANAGE</t>
-  </si>
-  <si>
-    <t>ELASTICSEARCH</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>SETTLEMENT</t>
-  </si>
-  <si>
-    <t>USER_CLIENT</t>
-  </si>
-  <si>
     <t>RISK</t>
   </si>
   <si>
     <t>JOB</t>
   </si>
   <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>ACTIVITY_CLIENT</t>
+    <t>ignoreNullValue</t>
+  </si>
+  <si>
+    <t>ignoreProperties</t>
+  </si>
+  <si>
+    <t>java.lang.String[]</t>
+  </si>
+  <si>
+    <t>ignoreCase</t>
+  </si>
+  <si>
+    <t>fieldMapping</t>
+  </si>
+  <si>
+    <t>editable</t>
   </si>
   <si>
     <t>ignoreError</t>
   </si>
   <si>
-    <t>ignoreCase</t>
-  </si>
-  <si>
-    <t>ignoreNullValue</t>
-  </si>
-  <si>
-    <t>fieldMapping</t>
-  </si>
-  <si>
-    <t>editable</t>
-  </si>
-  <si>
-    <t>ignoreProperties</t>
-  </si>
-  <si>
-    <t>java.lang.String[]</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>children</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
     <t>timestamp</t>
   </si>
   <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
     <t>REDIS_SMS_LOGIN_PREFIX</t>
   </si>
   <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
-    <t>DESC</t>
-  </si>
-  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>AES</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
+    <t>codeCount</t>
+  </si>
+  <si>
+    <t>codeSequence</t>
+  </si>
+  <si>
+    <t>char[]</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>java.util.Random</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>buffImg</t>
+  </si>
+  <si>
     <t>width</t>
   </si>
   <si>
-    <t>codeCount</t>
-  </si>
-  <si>
-    <t>buffImg</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>java.util.Random</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>codeSequence</t>
-  </si>
-  <si>
-    <t>char[]</t>
-  </si>
-  <si>
     <t>baseMapper</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
     <t>sort</t>
   </si>
   <si>
+    <t>PURE_MINUTES_PATTERN</t>
+  </si>
+  <si>
+    <t>NORM_DATE_PATTERN</t>
+  </si>
+  <si>
+    <t>NORM_DATETIME_MS_PATTERN</t>
+  </si>
+  <si>
+    <t>NORM_TIME_PATTERN</t>
+  </si>
+  <si>
     <t>NORM_DATETIME_MINUTE_PATTERN</t>
   </si>
   <si>
-    <t>PURE_MINUTES_PATTERN</t>
+    <t>JDK_DATETIME_PATTERN</t>
+  </si>
+  <si>
+    <t>NORM_DATETIME_PATTERN</t>
+  </si>
+  <si>
+    <t>PURE_MONTH_PATTERN</t>
+  </si>
+  <si>
+    <t>HTTP_DATETIME_PATTERN</t>
+  </si>
+  <si>
+    <t>PURE_DATE_PATTERN</t>
   </si>
   <si>
     <t>PURE_TIME_PATTERN</t>
   </si>
   <si>
-    <t>HTTP_DATETIME_PATTERN</t>
-  </si>
-  <si>
-    <t>NORM_DATETIME_PATTERN</t>
-  </si>
-  <si>
-    <t>PURE_DATE_PATTERN</t>
-  </si>
-  <si>
-    <t>NORM_TIME_PATTERN</t>
-  </si>
-  <si>
     <t>PURE_DATETIME_MS_PATTERN</t>
   </si>
   <si>
-    <t>PURE_MONTH_PATTERN</t>
-  </si>
-  <si>
     <t>PURE_DATETIME_PATTERN</t>
   </si>
   <si>
-    <t>NORM_DATE_PATTERN</t>
-  </si>
-  <si>
-    <t>JDK_DATETIME_PATTERN</t>
-  </si>
-  <si>
-    <t>NORM_DATETIME_MS_PATTERN</t>
-  </si>
-  <si>
     <t>EARTH_RADIUS</t>
   </si>
   <si>
     <t>RAD</t>
   </si>
   <si>
+    <t>QINIU_ACCESS_KEY</t>
+  </si>
+  <si>
+    <t>QINIU_BUCKET</t>
+  </si>
+  <si>
     <t>QINIU_SECRET_KEY</t>
   </si>
   <si>
-    <t>QINIU_ACCESS_KEY</t>
-  </si>
-  <si>
-    <t>QINIU_BUCKET</t>
-  </si>
-  <si>
     <t>OSS</t>
   </si>
   <si>
@@ -1836,19 +1836,19 @@
     <t>COMMA</t>
   </si>
   <si>
+    <t>FROZEN</t>
+  </si>
+  <si>
     <t>java.lang.Byte</t>
   </si>
   <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
     <t>VERTICAL_LINE</t>
-  </si>
-  <si>
-    <t>FAILURE</t>
-  </si>
-  <si>
-    <t>NORMAL</t>
-  </si>
-  <si>
-    <t>FROZEN</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -18067,7 +18067,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C410"/>
+  <dimension ref="A1:C396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18089,10 +18089,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3">
@@ -18100,7 +18100,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>616</v>
@@ -18111,7 +18111,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>616</v>
@@ -18122,7 +18122,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>616</v>
@@ -18130,13 +18130,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7">
@@ -18144,10 +18144,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8">
@@ -18155,7 +18155,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>623</v>
@@ -18166,7 +18166,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>623</v>
@@ -18177,7 +18177,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>623</v>
@@ -18188,7 +18188,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>623</v>
@@ -18199,7 +18199,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>623</v>
@@ -18210,7 +18210,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>623</v>
@@ -18221,10 +18221,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15">
@@ -18232,32 +18232,32 @@
         <v>31</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18">
@@ -18265,10 +18265,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19">
@@ -18276,7 +18276,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>623</v>
@@ -18287,10 +18287,10 @@
         <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21">
@@ -18298,29 +18298,29 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>616</v>
@@ -18328,10 +18328,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>616</v>
@@ -18339,10 +18339,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>641</v>
@@ -18350,10 +18350,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>616</v>
@@ -18361,10 +18361,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>616</v>
@@ -18372,10 +18372,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>616</v>
@@ -18383,24 +18383,24 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31">
@@ -18408,7 +18408,7 @@
         <v>37</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>616</v>
@@ -18419,7 +18419,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>616</v>
@@ -18430,7 +18430,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>616</v>
@@ -18441,7 +18441,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>616</v>
@@ -18452,7 +18452,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>616</v>
@@ -18463,7 +18463,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>616</v>
@@ -18474,7 +18474,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>616</v>
@@ -18485,7 +18485,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>616</v>
@@ -18496,7 +18496,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>616</v>
@@ -18507,7 +18507,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>616</v>
@@ -18518,7 +18518,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>616</v>
@@ -18529,7 +18529,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>616</v>
@@ -18540,10 +18540,10 @@
         <v>37</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>616</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44">
@@ -18551,7 +18551,7 @@
         <v>37</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>616</v>
@@ -18562,10 +18562,10 @@
         <v>37</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>616</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46">
@@ -18573,7 +18573,7 @@
         <v>37</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>616</v>
@@ -18581,10 +18581,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>616</v>
@@ -18592,21 +18592,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>660</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>616</v>
@@ -18614,21 +18614,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>653</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>616</v>
@@ -18636,24 +18636,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>615</v>
+        <v>661</v>
       </c>
     </row>
     <row r="54">
@@ -18661,10 +18661,10 @@
         <v>84</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55">
@@ -18672,10 +18672,10 @@
         <v>84</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>616</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56">
@@ -18683,7 +18683,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>616</v>
@@ -18691,156 +18691,156 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>616</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>616</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>661</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>616</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>641</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>662</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>663</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71">
@@ -18848,10 +18848,10 @@
         <v>101</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72">
@@ -18859,7 +18859,7 @@
         <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>616</v>
@@ -18870,10 +18870,10 @@
         <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>642</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74">
@@ -18881,10 +18881,10 @@
         <v>101</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>662</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75">
@@ -18892,7 +18892,7 @@
         <v>101</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>616</v>
@@ -18903,7 +18903,7 @@
         <v>101</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>616</v>
@@ -18914,7 +18914,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>616</v>
@@ -18925,7 +18925,7 @@
         <v>101</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>616</v>
@@ -18936,7 +18936,7 @@
         <v>101</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>616</v>
@@ -18947,7 +18947,7 @@
         <v>101</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>616</v>
@@ -18958,7 +18958,7 @@
         <v>101</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>616</v>
@@ -18969,7 +18969,7 @@
         <v>101</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>616</v>
@@ -18980,7 +18980,7 @@
         <v>101</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>616</v>
@@ -18991,7 +18991,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>616</v>
@@ -19002,7 +19002,7 @@
         <v>101</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>616</v>
@@ -19013,7 +19013,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>616</v>
@@ -19021,10 +19021,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>616</v>
@@ -19032,10 +19032,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>616</v>
@@ -19043,10 +19043,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>616</v>
@@ -19054,10 +19054,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>616</v>
@@ -19065,10 +19065,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>616</v>
@@ -19076,10 +19076,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>616</v>
@@ -19087,10 +19087,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>616</v>
@@ -19098,10 +19098,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>616</v>
@@ -19109,13 +19109,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>616</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96">
@@ -19123,10 +19123,10 @@
         <v>123</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97">
@@ -19134,10 +19134,10 @@
         <v>123</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98">
@@ -19145,7 +19145,7 @@
         <v>123</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>616</v>
@@ -19153,10 +19153,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>616</v>
@@ -19164,10 +19164,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>616</v>
@@ -19175,10 +19175,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>616</v>
@@ -19186,10 +19186,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>616</v>
@@ -19197,10 +19197,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>616</v>
@@ -19208,10 +19208,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>616</v>
@@ -19219,21 +19219,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>664</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>616</v>
@@ -19241,21 +19241,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>616</v>
@@ -19266,10 +19266,10 @@
         <v>132</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110">
@@ -19277,7 +19277,7 @@
         <v>132</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>616</v>
@@ -19288,10 +19288,10 @@
         <v>132</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="112">
@@ -19299,7 +19299,7 @@
         <v>132</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>616</v>
@@ -19310,10 +19310,10 @@
         <v>132</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>616</v>
+        <v>665</v>
       </c>
     </row>
     <row r="114">
@@ -19321,7 +19321,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>616</v>
@@ -19329,10 +19329,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>616</v>
@@ -19340,10 +19340,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>616</v>
@@ -19351,10 +19351,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>616</v>
@@ -19362,10 +19362,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>616</v>
@@ -19373,10 +19373,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>616</v>
@@ -19384,10 +19384,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>616</v>
@@ -19395,10 +19395,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>616</v>
@@ -19406,21 +19406,21 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>616</v>
@@ -19428,21 +19428,21 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>665</v>
+        <v>616</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>616</v>
@@ -19453,10 +19453,10 @@
         <v>146</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="127">
@@ -19464,10 +19464,10 @@
         <v>146</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128">
@@ -19475,7 +19475,7 @@
         <v>146</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>616</v>
@@ -19486,10 +19486,10 @@
         <v>146</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>616</v>
+        <v>665</v>
       </c>
     </row>
     <row r="130">
@@ -19497,7 +19497,7 @@
         <v>146</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>616</v>
@@ -19505,54 +19505,54 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>616</v>
@@ -19560,10 +19560,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>616</v>
@@ -19571,10 +19571,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>616</v>
@@ -19582,10 +19582,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>616</v>
@@ -19593,21 +19593,21 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>616</v>
@@ -19615,21 +19615,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>665</v>
+        <v>616</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>616</v>
@@ -19637,87 +19637,87 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>614</v>
+        <v>666</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>614</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>616</v>
+        <v>667</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>616</v>
@@ -19725,76 +19725,76 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>616</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>616</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>666</v>
+        <v>641</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>646</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>616</v>
@@ -19802,65 +19802,65 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>667</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>635</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>616</v>
@@ -19868,90 +19868,90 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>642</v>
+        <v>616</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>641</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>666</v>
+        <v>616</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>616</v>
+        <v>649</v>
       </c>
     </row>
     <row r="172">
@@ -19959,84 +19959,84 @@
         <v>196</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>616</v>
+        <v>649</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>616</v>
+        <v>646</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>616</v>
@@ -20044,10 +20044,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>616</v>
@@ -20055,10 +20055,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>616</v>
@@ -20066,10 +20066,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>616</v>
@@ -20077,21 +20077,21 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>668</v>
+        <v>616</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>616</v>
@@ -20099,21 +20099,21 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>616</v>
@@ -20121,57 +20121,57 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="192">
@@ -20179,10 +20179,10 @@
         <v>208</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="193">
@@ -20190,10 +20190,10 @@
         <v>208</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>616</v>
+        <v>665</v>
       </c>
     </row>
     <row r="194">
@@ -20201,7 +20201,7 @@
         <v>208</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>616</v>
@@ -20209,10 +20209,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>616</v>
@@ -20220,10 +20220,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>616</v>
@@ -20231,131 +20231,131 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>616</v>
+        <v>666</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>665</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>616</v>
@@ -20363,10 +20363,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>616</v>
@@ -20374,10 +20374,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>616</v>
@@ -20385,101 +20385,101 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>666</v>
+        <v>616</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>623</v>
+        <v>668</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>616</v>
+        <v>649</v>
       </c>
     </row>
     <row r="220">
@@ -20487,18 +20487,18 @@
         <v>222</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>616</v>
@@ -20506,65 +20506,65 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>616</v>
+        <v>666</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>616</v>
+        <v>643</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>616</v>
@@ -20572,10 +20572,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>616</v>
@@ -20583,10 +20583,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>616</v>
@@ -20594,10 +20594,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>616</v>
@@ -20605,21 +20605,21 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>668</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>616</v>
@@ -20627,21 +20627,21 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>616</v>
@@ -20652,7 +20652,7 @@
         <v>174</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>616</v>
@@ -20663,10 +20663,10 @@
         <v>174</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>666</v>
+        <v>616</v>
       </c>
     </row>
     <row r="237">
@@ -20674,10 +20674,10 @@
         <v>174</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238">
@@ -20685,10 +20685,10 @@
         <v>174</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>643</v>
+        <v>616</v>
       </c>
     </row>
     <row r="239">
@@ -20696,10 +20696,10 @@
         <v>174</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="240">
@@ -20707,10 +20707,10 @@
         <v>174</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>635</v>
+        <v>669</v>
       </c>
     </row>
     <row r="241">
@@ -20718,7 +20718,7 @@
         <v>174</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>616</v>
@@ -20729,10 +20729,10 @@
         <v>174</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>616</v>
+        <v>646</v>
       </c>
     </row>
     <row r="243">
@@ -20740,7 +20740,7 @@
         <v>174</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>616</v>
@@ -20748,76 +20748,76 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>616</v>
@@ -20825,10 +20825,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>616</v>
@@ -20836,10 +20836,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>616</v>
@@ -20847,32 +20847,32 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>669</v>
+        <v>616</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>616</v>
@@ -20880,21 +20880,21 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>646</v>
+        <v>616</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>616</v>
@@ -20902,120 +20902,120 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>614</v>
+        <v>661</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>63</v>
+        <v>277</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>616</v>
@@ -21023,142 +21023,142 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>637</v>
+        <v>653</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>615</v>
+        <v>635</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>616</v>
@@ -21166,10 +21166,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>616</v>
@@ -21177,32 +21177,32 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>641</v>
@@ -21210,76 +21210,76 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>642</v>
+        <v>616</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>653</v>
+        <v>616</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>616</v>
@@ -21287,32 +21287,32 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>635</v>
+        <v>616</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>616</v>
@@ -21320,153 +21320,153 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>651</v>
+        <v>623</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>308</v>
+        <v>5</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>616</v>
+        <v>669</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>616</v>
+        <v>662</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>616</v>
@@ -21474,76 +21474,76 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>317</v>
+        <v>5</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>635</v>
+        <v>670</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>623</v>
+        <v>637</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C316" t="s" s="0">
         <v>623</v>
@@ -21551,32 +21551,32 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>669</v>
+        <v>616</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>616</v>
@@ -21584,32 +21584,32 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>662</v>
+        <v>616</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>616</v>
@@ -21617,10 +21617,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>616</v>
@@ -21628,21 +21628,21 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>616</v>
@@ -21650,10 +21650,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>616</v>
@@ -21661,21 +21661,21 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>670</v>
+        <v>616</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>616</v>
@@ -21683,32 +21683,32 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>616</v>
@@ -21716,10 +21716,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>616</v>
@@ -21727,10 +21727,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>616</v>
@@ -21738,21 +21738,21 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>616</v>
@@ -21760,10 +21760,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>616</v>
@@ -21771,10 +21771,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>616</v>
@@ -21785,10 +21785,10 @@
         <v>331</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="339">
@@ -21796,7 +21796,7 @@
         <v>331</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>616</v>
@@ -21807,7 +21807,7 @@
         <v>331</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>616</v>
@@ -21818,7 +21818,7 @@
         <v>331</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>616</v>
@@ -21829,7 +21829,7 @@
         <v>331</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>616</v>
@@ -21840,10 +21840,10 @@
         <v>331</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="344">
@@ -21851,7 +21851,7 @@
         <v>331</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>616</v>
@@ -21862,7 +21862,7 @@
         <v>331</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>616</v>
@@ -21873,7 +21873,7 @@
         <v>331</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>616</v>
@@ -21884,7 +21884,7 @@
         <v>331</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C347" t="s" s="0">
         <v>616</v>
@@ -21895,10 +21895,10 @@
         <v>331</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="349">
@@ -21906,7 +21906,7 @@
         <v>331</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>616</v>
@@ -21917,62 +21917,62 @@
         <v>331</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>616</v>
+        <v>662</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C355" t="s" s="0">
         <v>616</v>
@@ -21980,153 +21980,153 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>360</v>
+        <v>47</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>360</v>
+        <v>47</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>360</v>
+        <v>47</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>662</v>
+        <v>616</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>616</v>
@@ -22134,142 +22134,142 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>635</v>
+        <v>616</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="0">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="C377" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="0">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="0">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>70</v>
+        <v>393</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>616</v>
+        <v>662</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="0">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="0">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="0">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>616</v>
@@ -22277,21 +22277,21 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="0">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="C383" t="s" s="0">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="0">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>616</v>
@@ -22299,21 +22299,21 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="0">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="C385" t="s" s="0">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="0">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>616</v>
@@ -22321,87 +22321,87 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="0">
-        <v>47</v>
+        <v>422</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="C387" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s" s="0">
-        <v>47</v>
+        <v>422</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>5</v>
+        <v>306</v>
       </c>
       <c r="C388" t="s" s="0">
-        <v>664</v>
+        <v>614</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s" s="0">
-        <v>47</v>
+        <v>422</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>47</v>
+        <v>422</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>47</v>
+        <v>422</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="C391" t="s" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>641</v>
+        <v>614</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="C393" t="s" s="0">
-        <v>662</v>
+        <v>643</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>641</v>
@@ -22409,177 +22409,23 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="0">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="C395" t="s" s="0">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="0">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C396" t="s" s="0">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s" s="0">
-        <v>404</v>
-      </c>
-      <c r="B397" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C397" t="s" s="0">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s" s="0">
-        <v>404</v>
-      </c>
-      <c r="B398" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="C398" t="s" s="0">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s" s="0">
-        <v>404</v>
-      </c>
-      <c r="B399" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C399" t="s" s="0">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s" s="0">
-        <v>404</v>
-      </c>
-      <c r="B400" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C400" t="s" s="0">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B401" t="s" s="0">
-        <v>301</v>
-      </c>
-      <c r="C401" t="s" s="0">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B402" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="C402" t="s" s="0">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B403" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="C403" t="s" s="0">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B404" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="C404" t="s" s="0">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B405" t="s" s="0">
-        <v>303</v>
-      </c>
-      <c r="C405" t="s" s="0">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B406" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="C406" t="s" s="0">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B407" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="C407" t="s" s="0">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s" s="0">
-        <v>423</v>
-      </c>
-      <c r="B408" t="s" s="0">
-        <v>426</v>
-      </c>
-      <c r="C408" t="s" s="0">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s" s="0">
-        <v>423</v>
-      </c>
-      <c r="B409" t="s" s="0">
-        <v>427</v>
-      </c>
-      <c r="C409" t="s" s="0">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s" s="0">
-        <v>423</v>
-      </c>
-      <c r="B410" t="s" s="0">
-        <v>424</v>
-      </c>
-      <c r="C410" t="s" s="0">
         <v>665</v>
       </c>
     </row>
@@ -22676,7 +22522,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -22718,7 +22564,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -22732,7 +22578,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -22746,7 +22592,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -22760,7 +22606,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -22788,7 +22634,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>372</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -22816,7 +22662,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
@@ -22838,13 +22684,13 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -22852,13 +22698,13 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -22866,7 +22712,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>26</v>
@@ -22886,7 +22732,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -22894,7 +22740,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>26</v>
@@ -22908,13 +22754,13 @@
         <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>233</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -22922,13 +22768,13 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -22936,13 +22782,13 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
@@ -22950,7 +22796,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>26</v>
@@ -22984,7 +22830,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -22992,13 +22838,13 @@
         <v>84</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>233</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -23006,13 +22852,13 @@
         <v>84</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>68</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
@@ -23020,13 +22866,13 @@
         <v>101</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -23034,7 +22880,7 @@
         <v>101</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>26</v>
@@ -23048,13 +22894,13 @@
         <v>101</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>456</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -23062,13 +22908,13 @@
         <v>101</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -23076,13 +22922,13 @@
         <v>101</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -23090,13 +22936,13 @@
         <v>101</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>233</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35">
@@ -23104,13 +22950,13 @@
         <v>101</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
@@ -23118,13 +22964,13 @@
         <v>101</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -23132,13 +22978,13 @@
         <v>101</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -23146,7 +22992,7 @@
         <v>101</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>26</v>
@@ -23272,13 +23118,13 @@
         <v>123</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48">
@@ -23286,7 +23132,7 @@
         <v>123</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>26</v>
@@ -23300,7 +23146,7 @@
         <v>123</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>26</v>
@@ -23314,13 +23160,13 @@
         <v>123</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>233</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -23426,13 +23272,13 @@
         <v>132</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
@@ -23440,7 +23286,7 @@
         <v>132</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>26</v>
@@ -23454,13 +23300,13 @@
         <v>132</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -23474,7 +23320,7 @@
         <v>26</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -23488,7 +23334,7 @@
         <v>26</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63">
@@ -23678,13 +23524,13 @@
         <v>146</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -23692,13 +23538,13 @@
         <v>146</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>233</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -23706,7 +23552,7 @@
         <v>146</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>26</v>
@@ -23720,7 +23566,7 @@
         <v>146</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>26</v>
@@ -23734,13 +23580,13 @@
         <v>146</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81">
@@ -23748,13 +23594,13 @@
         <v>146</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -23762,13 +23608,13 @@
         <v>146</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83">
@@ -23776,7 +23622,7 @@
         <v>150</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
@@ -23790,7 +23636,7 @@
         <v>150</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
@@ -23804,7 +23650,7 @@
         <v>150</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
@@ -23818,7 +23664,7 @@
         <v>150</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
@@ -23832,7 +23678,7 @@
         <v>150</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
@@ -23846,7 +23692,7 @@
         <v>150</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
@@ -23860,7 +23706,7 @@
         <v>150</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
@@ -23874,7 +23720,7 @@
         <v>150</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
@@ -23888,7 +23734,7 @@
         <v>150</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
@@ -23902,7 +23748,7 @@
         <v>150</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
@@ -23916,7 +23762,7 @@
         <v>150</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
@@ -23930,7 +23776,7 @@
         <v>150</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
@@ -23944,7 +23790,7 @@
         <v>150</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
@@ -23958,7 +23804,7 @@
         <v>150</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
@@ -23972,7 +23818,7 @@
         <v>150</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
@@ -23986,7 +23832,7 @@
         <v>150</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -24014,13 +23860,13 @@
         <v>161</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101">
@@ -24028,13 +23874,13 @@
         <v>161</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -24042,7 +23888,7 @@
         <v>161</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>26</v>
@@ -24322,7 +24168,7 @@
         <v>179</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
@@ -24336,7 +24182,7 @@
         <v>179</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
@@ -24350,7 +24196,7 @@
         <v>179</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
@@ -24364,7 +24210,7 @@
         <v>179</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
@@ -24378,7 +24224,7 @@
         <v>179</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>6</v>
@@ -24392,7 +24238,7 @@
         <v>179</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>6</v>
@@ -24406,7 +24252,7 @@
         <v>179</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
@@ -24420,7 +24266,7 @@
         <v>179</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
@@ -24434,7 +24280,7 @@
         <v>179</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
@@ -24448,7 +24294,7 @@
         <v>179</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
@@ -24462,7 +24308,7 @@
         <v>179</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
@@ -24490,7 +24336,7 @@
         <v>180</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
@@ -24518,7 +24364,7 @@
         <v>180</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>6</v>
@@ -24532,7 +24378,7 @@
         <v>180</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>6</v>
@@ -24546,7 +24392,7 @@
         <v>180</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>6</v>
@@ -24602,13 +24448,13 @@
         <v>196</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>233</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -24616,13 +24462,13 @@
         <v>196</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144">
@@ -24630,13 +24476,13 @@
         <v>196</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>68</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145">
@@ -24658,7 +24504,7 @@
         <v>196</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>26</v>
@@ -24672,7 +24518,7 @@
         <v>196</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>26</v>
@@ -24756,7 +24602,7 @@
         <v>207</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>6</v>
@@ -24770,7 +24616,7 @@
         <v>207</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>6</v>
@@ -24784,7 +24630,7 @@
         <v>207</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
@@ -24798,7 +24644,7 @@
         <v>207</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
@@ -24840,7 +24686,7 @@
         <v>207</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>6</v>
@@ -24854,7 +24700,7 @@
         <v>207</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>6</v>
@@ -24868,7 +24714,7 @@
         <v>207</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>6</v>
@@ -24882,7 +24728,7 @@
         <v>207</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>6</v>
@@ -24896,7 +24742,7 @@
         <v>207</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
@@ -24910,7 +24756,7 @@
         <v>207</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>6</v>
@@ -25022,13 +24868,13 @@
         <v>208</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
@@ -25036,13 +24882,13 @@
         <v>208</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174">
@@ -25050,13 +24896,13 @@
         <v>208</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
@@ -25064,13 +24910,13 @@
         <v>208</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176">
@@ -25078,13 +24924,13 @@
         <v>208</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>233</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
@@ -25092,13 +24938,13 @@
         <v>208</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
@@ -25106,13 +24952,13 @@
         <v>208</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179">
@@ -25140,7 +24986,7 @@
         <v>9</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>7</v>
+        <v>552</v>
       </c>
     </row>
     <row r="181">
@@ -25148,7 +24994,7 @@
         <v>210</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>9</v>
@@ -25162,7 +25008,7 @@
         <v>210</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>9</v>
@@ -25176,7 +25022,7 @@
         <v>210</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>9</v>
@@ -25190,13 +25036,13 @@
         <v>210</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>556</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -25238,7 +25084,7 @@
         <v>26</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188">
@@ -25246,13 +25092,13 @@
         <v>222</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>558</v>
+        <v>453</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
@@ -25260,7 +25106,7 @@
         <v>222</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>26</v>
@@ -25274,7 +25120,7 @@
         <v>222</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>451</v>
+        <v>559</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>26</v>
@@ -25308,7 +25154,7 @@
         <v>26</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
@@ -25322,7 +25168,7 @@
         <v>26</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>15</v>
+        <v>233</v>
       </c>
     </row>
     <row r="194">
@@ -25336,7 +25182,7 @@
         <v>26</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
@@ -25344,13 +25190,13 @@
         <v>174</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>450</v>
+        <v>564</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
@@ -25358,13 +25204,13 @@
         <v>174</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>564</v>
+        <v>450</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197">
@@ -25389,10 +25235,10 @@
         <v>566</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>13</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199">
@@ -25400,13 +25246,13 @@
         <v>251</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D199" t="s" s="0">
-        <v>251</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -25414,13 +25260,13 @@
         <v>251</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201">
@@ -25428,7 +25274,7 @@
         <v>251</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>26</v>
@@ -25445,10 +25291,10 @@
         <v>569</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203">
@@ -25456,13 +25302,13 @@
         <v>265</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>233</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204">
@@ -25470,7 +25316,7 @@
         <v>265</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>26</v>
@@ -25484,13 +25330,13 @@
         <v>265</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>570</v>
+        <v>450</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="206">
@@ -25498,13 +25344,13 @@
         <v>265</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
@@ -25512,13 +25358,13 @@
         <v>281</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
@@ -25526,13 +25372,13 @@
         <v>281</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>20</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209">
@@ -25540,13 +25386,13 @@
         <v>281</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>20</v>
+        <v>575</v>
       </c>
     </row>
     <row r="210">
@@ -25554,13 +25400,13 @@
         <v>281</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>290</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
@@ -25568,13 +25414,13 @@
         <v>281</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>575</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212">
@@ -25582,7 +25428,7 @@
         <v>281</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>26</v>
@@ -25596,13 +25442,13 @@
         <v>281</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>578</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214">
@@ -25624,13 +25470,13 @@
         <v>319</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>321</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216">
@@ -25638,13 +25484,13 @@
         <v>319</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>233</v>
+        <v>321</v>
       </c>
     </row>
     <row r="217">
@@ -25666,7 +25512,7 @@
         <v>326</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -25680,7 +25526,7 @@
         <v>326</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>6</v>
@@ -25694,7 +25540,7 @@
         <v>326</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>6</v>
@@ -25708,7 +25554,7 @@
         <v>326</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>6</v>
@@ -25722,7 +25568,7 @@
         <v>326</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>6</v>
@@ -25750,7 +25596,7 @@
         <v>326</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>6</v>
@@ -25764,7 +25610,7 @@
         <v>326</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>6</v>
@@ -25792,7 +25638,7 @@
         <v>326</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>6</v>
@@ -25806,13 +25652,13 @@
         <v>327</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>321</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229">
@@ -25820,13 +25666,13 @@
         <v>327</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230">
@@ -25848,13 +25694,13 @@
         <v>327</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>233</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232">
@@ -26072,13 +25918,13 @@
         <v>47</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>233</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
@@ -26086,13 +25932,13 @@
         <v>47</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>13</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249">
@@ -26100,7 +25946,7 @@
         <v>47</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>26</v>
@@ -26114,7 +25960,7 @@
         <v>47</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>26</v>
@@ -26128,13 +25974,13 @@
         <v>47</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>372</v>
+        <v>233</v>
       </c>
     </row>
     <row r="252">
@@ -26198,7 +26044,7 @@
         <v>403</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>6</v>
@@ -26212,7 +26058,7 @@
         <v>403</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>6</v>
@@ -26240,7 +26086,7 @@
         <v>403</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>6</v>
@@ -26254,7 +26100,7 @@
         <v>403</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>6</v>
@@ -26282,7 +26128,7 @@
         <v>403</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>6</v>
@@ -26296,7 +26142,7 @@
         <v>403</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>6</v>
@@ -26310,7 +26156,7 @@
         <v>403</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>6</v>
@@ -26324,7 +26170,7 @@
         <v>403</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>6</v>
@@ -26352,13 +26198,13 @@
         <v>404</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>450</v>
+        <v>602</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D267" t="s" s="0">
-        <v>233</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -26380,13 +26226,13 @@
         <v>404</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>602</v>
+        <v>450</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D269" t="s" s="0">
-        <v>7</v>
+        <v>233</v>
       </c>
     </row>
     <row r="270">
@@ -26408,13 +26254,13 @@
         <v>429</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>471</v>
+        <v>604</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D271" t="s" s="0">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272">
@@ -26422,13 +26268,13 @@
         <v>429</v>
       </c>
       <c r="B272" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s" s="0">
         <v>605</v>
-      </c>
-      <c r="C272" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D272" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="273">
@@ -26436,7 +26282,7 @@
         <v>429</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>6</v>
@@ -26450,13 +26296,13 @@
         <v>429</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D274" t="s" s="0">
-        <v>604</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
@@ -26464,13 +26310,13 @@
         <v>429</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>608</v>
+        <v>471</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D275" t="s" s="0">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="276">
@@ -26478,7 +26324,7 @@
         <v>429</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>6</v>
@@ -31119,7 +30965,7 @@
         <v>210</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>614</v>
@@ -31136,7 +30982,7 @@
         <v>146</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>614</v>
@@ -31170,7 +31016,7 @@
         <v>208</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>614</v>
@@ -31187,7 +31033,7 @@
         <v>208</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>614</v>
@@ -31204,7 +31050,7 @@
         <v>146</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>614</v>
@@ -31238,7 +31084,7 @@
         <v>210</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>616</v>
@@ -31255,7 +31101,7 @@
         <v>208</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>614</v>
@@ -31272,7 +31118,7 @@
         <v>210</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>614</v>
@@ -31289,7 +31135,7 @@
         <v>146</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>614</v>
@@ -31306,7 +31152,7 @@
         <v>208</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>614</v>
@@ -31340,7 +31186,7 @@
         <v>210</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>614</v>
@@ -31374,7 +31220,7 @@
         <v>210</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>623</v>
@@ -31391,7 +31237,7 @@
         <v>146</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>614</v>
@@ -31442,7 +31288,7 @@
         <v>146</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>614</v>
@@ -31476,7 +31322,7 @@
         <v>146</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>614</v>
@@ -31493,7 +31339,7 @@
         <v>208</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>614</v>
@@ -31510,7 +31356,7 @@
         <v>146</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>614</v>
@@ -31527,7 +31373,7 @@
         <v>208</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>614</v>
@@ -31544,7 +31390,7 @@
         <v>146</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>614</v>
@@ -31561,7 +31407,7 @@
         <v>208</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>614</v>
@@ -31578,7 +31424,7 @@
         <v>210</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>614</v>
@@ -31595,7 +31441,7 @@
         <v>208</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>614</v>
@@ -31612,7 +31458,7 @@
         <v>210</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E32" t="s" s="0">
         <v>615</v>
